--- a/bulletin/macroeconomics/static/macroeconomics/tables/consensus_gdp_growth_and_oil_prices_forecast1.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/consensus_gdp_growth_and_oil_prices_forecast1.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84CCD174-632E-460A-89DA-42F1F46387FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,17 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>OECD (Июнь 2023 г.)</t>
   </si>
   <si>
-    <t>ADB (Апрель 2023 г.)</t>
-  </si>
-  <si>
-    <t>WB (Январь 2023 г.)</t>
-  </si>
-  <si>
     <t>IMF (Апрель 2023 г.)</t>
   </si>
   <si>
@@ -47,13 +40,88 @@
   </si>
   <si>
     <t>Казахстан</t>
+  </si>
+  <si>
+    <t>3,9</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>4,3</t>
+  </si>
+  <si>
+    <t>4,4</t>
+  </si>
+  <si>
+    <t>WB (Июнь 2023 г.)</t>
+  </si>
+  <si>
+    <t>3,5</t>
+  </si>
+  <si>
+    <t>4,0</t>
+  </si>
+  <si>
+    <t>ADB (Июль 2023 г.)</t>
+  </si>
+  <si>
+    <t>4,1</t>
+  </si>
+  <si>
+    <t>-0,4</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>IMF (Июль 2023 г.)</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,3</t>
+  </si>
+  <si>
+    <t>-0,2</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>-1,5</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>5,2</t>
+  </si>
+  <si>
+    <t>4,8</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>WB (Апрель 2023 г.)</t>
+  </si>
+  <si>
+    <t>5,1</t>
+  </si>
+  <si>
+    <t>5,0</t>
+  </si>
+  <si>
+    <t>5,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +129,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF17365D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBE5F1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -78,12 +202,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -144,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -179,7 +389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -356,221 +566,225 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection sqref="A1:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2">
+        <v>2023</v>
+      </c>
+      <c r="C1" s="2">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1">
+    </row>
+    <row r="3" spans="1:3" ht="30" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" thickBot="1">
+      <c r="A4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" thickBot="1">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" thickBot="1">
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10">
         <v>2023</v>
       </c>
-      <c r="C1">
+      <c r="C7" s="10">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" thickBot="1">
+      <c r="A10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" thickBot="1">
+      <c r="A11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" thickBot="1">
+      <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>3.9</v>
-      </c>
-      <c r="C2">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>4.3</v>
-      </c>
-      <c r="C3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B13" s="10">
+        <v>2023</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3.5</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>3.7</v>
-      </c>
-      <c r="C5">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>3.9</v>
-      </c>
-      <c r="C6">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>2023</v>
-      </c>
-      <c r="C7">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-1.4</v>
-      </c>
-      <c r="C8">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>0.7</v>
-      </c>
-      <c r="C9">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-3.3</v>
-      </c>
-      <c r="C10">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B14" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="30" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" thickBot="1">
+      <c r="A16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" thickBot="1">
+      <c r="A18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B11">
-        <v>-1.5</v>
-      </c>
-      <c r="C11">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>-1.5</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
-        <v>2023</v>
-      </c>
-      <c r="C13">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>5.2</v>
-      </c>
-      <c r="C15">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>4.3</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>5.4</v>
-      </c>
-      <c r="C18">
-        <v>5.0999999999999996</v>
+      <c r="B18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>